--- a/salidaaerodinamicapeqconruido.xlsx
+++ b/salidaaerodinamicapeqconruido.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verti\Desktop\misilnl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689E72CB-69DF-4654-BEAF-529962EBFD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDB547D-8AA1-4B23-9A53-0C7CA6E3B3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="baseline1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,27 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Fx</t>
-  </si>
-  <si>
-    <t>Fy</t>
-  </si>
-  <si>
-    <t>Fz</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Time</t>
+    <t>time</t>
   </si>
   <si>
     <t>time</t>
@@ -103,49 +85,22 @@
     <t>(6)</t>
   </si>
   <si>
-    <t>time</t>
+    <t>salidas.Fx</t>
   </si>
   <si>
-    <t>(1)</t>
+    <t>salidas.Fy</t>
   </si>
   <si>
-    <t>AbsTol: 0</t>
+    <t>salidas.Fz</t>
   </si>
   <si>
-    <t>BlockPath: Misil_Simulink_Harness1/Aerodinamicaa</t>
+    <t>salidas.L</t>
   </si>
   <si>
-    <t>Source: Output</t>
+    <t>salidas.M</t>
   </si>
   <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>AbsTol: 0</t>
-  </si>
-  <si>
-    <t>BlockPath: Misil_Simulink_Harness1/Out1</t>
-  </si>
-  <si>
-    <t>Interp: zoh</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>(6)</t>
+    <t>salidas.N</t>
   </si>
 </sst>
 </file>
@@ -169,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -177,19 +132,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,36 +455,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BAA382-2551-42C3-97B4-FD5EEB0C2B86}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -558,7 +507,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -581,7 +530,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -604,7 +553,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.6</v>
       </c>
@@ -627,7 +576,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -650,7 +599,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -673,7 +622,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.2</v>
       </c>
@@ -696,7 +645,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.4</v>
       </c>
@@ -719,7 +668,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.6</v>
       </c>
@@ -742,7 +691,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.8</v>
       </c>
@@ -765,7 +714,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -788,7 +737,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.2000000000000002</v>
       </c>
@@ -811,7 +760,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.4</v>
       </c>
@@ -834,7 +783,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.6</v>
       </c>
@@ -857,7 +806,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.8</v>
       </c>
@@ -880,7 +829,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -903,7 +852,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.2</v>
       </c>
@@ -926,7 +875,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.4</v>
       </c>
@@ -949,7 +898,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.6</v>
       </c>
@@ -972,7 +921,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.8</v>
       </c>
@@ -995,7 +944,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1018,7 +967,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -1041,7 +990,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -1064,7 +1013,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
@@ -1087,7 +1036,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -1110,7 +1059,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1133,7 +1082,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.2</v>
       </c>
@@ -1156,7 +1105,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5.4</v>
       </c>
@@ -1179,7 +1128,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5.6</v>
       </c>
@@ -1202,7 +1151,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5.8</v>
       </c>
@@ -1225,7 +1174,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1248,7 +1197,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6.2</v>
       </c>
@@ -1271,7 +1220,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6.4</v>
       </c>
@@ -1294,7 +1243,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6.6</v>
       </c>
@@ -1317,7 +1266,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6.8</v>
       </c>
@@ -1340,7 +1289,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1363,7 +1312,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7.2</v>
       </c>
@@ -1386,7 +1335,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7.4</v>
       </c>
@@ -1409,7 +1358,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7.6</v>
       </c>
@@ -1432,7 +1381,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7.8</v>
       </c>
@@ -1455,7 +1404,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -1478,7 +1427,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8.1999999999999993</v>
       </c>
@@ -1501,7 +1450,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8.4</v>
       </c>
@@ -1524,7 +1473,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8.6</v>
       </c>
@@ -1547,7 +1496,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8.8000000000000007</v>
       </c>
@@ -1570,7 +1519,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1593,7 +1542,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9.1999999999999993</v>
       </c>
@@ -1616,7 +1565,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9.4</v>
       </c>
@@ -1639,7 +1588,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>9.6</v>
       </c>
@@ -1662,7 +1611,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9.8000000000000007</v>
       </c>
@@ -1685,7 +1634,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1721,1579 +1670,1545 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.82421875" customWidth="true"/>
-    <col min="2" max="2" width="43.15625" customWidth="true"/>
-    <col min="3" max="3" width="3.26953125" customWidth="true"/>
-    <col min="6" max="6" width="34.93359375" customWidth="true"/>
-    <col min="7" max="7" width="3.26953125" customWidth="true"/>
-    <col min="4" max="4" width="3.26953125" customWidth="true"/>
-    <col min="5" max="5" width="3.26953125" customWidth="true"/>
-    <col min="8" max="8" width="3.26953125" customWidth="true"/>
-    <col min="9" max="9" width="3.26953125" customWidth="true"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="5" width="3.21875" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="7" max="9" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" s="0">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>1895.984769253547</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>104.01523072053335</v>
       </c>
-      <c r="D6" s="0">
-        <v>-0</v>
-      </c>
-      <c r="E6" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F6" s="0">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1895.984769253547</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>104.01523072053335</v>
       </c>
-      <c r="H6" s="0">
-        <v>-0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
         <v>1888.7992825359356</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>81.937099328847623</v>
       </c>
-      <c r="D7" s="0">
-        <v>6.110585945471259e-05</v>
-      </c>
-      <c r="E7" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F7" s="0">
+      <c r="D7">
+        <v>6.110585945471259E-5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1888.7992825359356</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>81.937099328847623</v>
       </c>
-      <c r="H7" s="0">
-        <v>6.110585945471259e-05</v>
-      </c>
-      <c r="I7" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="H7">
+        <v>6.110585945471259E-5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
+      <c r="B8">
         <v>1868.0815951334775</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>26.611249035473776</v>
       </c>
-      <c r="D8" s="0">
-        <v>0.00037709187712757269</v>
-      </c>
-      <c r="E8" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F8" s="0">
+      <c r="D8">
+        <v>3.7709187712757269E-4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1868.0815951334775</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>26.611249035473776</v>
       </c>
-      <c r="H8" s="0">
-        <v>0.00037709187712757269</v>
-      </c>
-      <c r="I8" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+      <c r="H8">
+        <v>3.7709187712757269E-4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>0.60000000000000009</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>1835.3286834671324</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>-37.34939806177448</v>
       </c>
-      <c r="D9" s="0">
-        <v>0.00043531394529175129</v>
-      </c>
-      <c r="E9" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F9" s="0">
+      <c r="D9">
+        <v>4.3531394529175129E-4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1835.3286834671324</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-37.34939806177448</v>
       </c>
-      <c r="H9" s="0">
-        <v>0.00043531394529175129</v>
-      </c>
-      <c r="I9" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="B10" s="0">
+      <c r="H9">
+        <v>4.3531394529175129E-4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
         <v>1791.3033435435004</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>-87.53358290051078</v>
       </c>
-      <c r="D10" s="0">
-        <v>0.00030244212289602093</v>
-      </c>
-      <c r="E10" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F10" s="0">
+      <c r="D10">
+        <v>3.0244212289602093E-4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1791.3033435435004</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-87.53358290051078</v>
       </c>
-      <c r="H10" s="0">
-        <v>0.00030244212289602093</v>
-      </c>
-      <c r="I10" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+      <c r="H10">
+        <v>3.0244212289602093E-4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>1736.2050563618172</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>-113.97476189713534</v>
       </c>
-      <c r="D11" s="0">
-        <v>-0.0019293849331178505</v>
-      </c>
-      <c r="E11" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F11" s="0">
+      <c r="D11">
+        <v>-1.9293849331178505E-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1736.2050563618172</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>-113.97476189713534</v>
       </c>
-      <c r="H11" s="0">
-        <v>-0.0019293849331178505</v>
-      </c>
-      <c r="I11" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+      <c r="H11">
+        <v>-1.9293849331178505E-3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1.2000000000000002</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>1670.7038691826729</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>-119.09070674181936</v>
       </c>
-      <c r="D12" s="0">
-        <v>0.00018310608211998347</v>
-      </c>
-      <c r="E12" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F12" s="0">
+      <c r="D12">
+        <v>1.8310608211998347E-4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1670.7038691826729</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>-119.09070674181936</v>
       </c>
-      <c r="H12" s="0">
-        <v>0.00018310608211998347</v>
-      </c>
-      <c r="I12" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="H12">
+        <v>1.8310608211998347E-4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1.4000000000000001</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>1596.3507192725942</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>-111.33957816206996</v>
       </c>
-      <c r="D13" s="0">
-        <v>-0.00050874865488541483</v>
-      </c>
-      <c r="E13" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F13" s="0">
+      <c r="D13">
+        <v>-5.0874865488541483E-4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1596.3507192725942</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>-111.33957816206996</v>
       </c>
-      <c r="H13" s="0">
-        <v>-0.00050874865488541483</v>
-      </c>
-      <c r="I13" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="H13">
+        <v>-5.0874865488541483E-4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.6</v>
+      </c>
+      <c r="B14">
         <v>1515.2145318644484</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>-98.833448190403971</v>
       </c>
-      <c r="D14" s="0">
-        <v>-0.00078764823776558148</v>
-      </c>
-      <c r="E14" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F14" s="0">
+      <c r="D14">
+        <v>-7.8764823776558148E-4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>1515.2145318644484</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>-98.833448190403971</v>
       </c>
-      <c r="H14" s="0">
-        <v>-0.00078764823776558148</v>
-      </c>
-      <c r="I14" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="H14">
+        <v>-7.8764823776558148E-4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>1.8</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>1429.3983822333817</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>-86.416325728446836</v>
       </c>
-      <c r="D15" s="0">
-        <v>-0.0001754448611514271</v>
-      </c>
-      <c r="E15" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F15" s="0">
+      <c r="D15">
+        <v>-1.754448611514271E-4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>1429.3983822333817</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>-86.416325728446836</v>
       </c>
-      <c r="H15" s="0">
-        <v>-0.0001754448611514271</v>
-      </c>
-      <c r="I15" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+      <c r="H15">
+        <v>-1.754448611514271E-4</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>1340.7993649119658</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>-75.877057420578325</v>
       </c>
-      <c r="D16" s="0">
-        <v>-0.0014464345336643338</v>
-      </c>
-      <c r="E16" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F16" s="0">
+      <c r="D16">
+        <v>-1.4464345336643338E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>1340.7993649119658</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>-75.877057420578325</v>
       </c>
-      <c r="H16" s="0">
-        <v>-0.0014464345336643338</v>
-      </c>
-      <c r="I16" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+      <c r="H16">
+        <v>-1.4464345336643338E-3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>1251.0654795244191</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>-67.319613117894349</v>
       </c>
-      <c r="D17" s="0">
-        <v>-0.0019165745937672345</v>
-      </c>
-      <c r="E17" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F17" s="0">
+      <c r="D17">
+        <v>-1.9165745937672345E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>1251.0654795244191</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>-67.319613117894349</v>
       </c>
-      <c r="H17" s="0">
-        <v>-0.0019165745937672345</v>
-      </c>
-      <c r="I17" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="H17">
+        <v>-1.9165745937672345E-3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>2.4000000000000004</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>1161.6144755399039</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>-60.292586457478066</v>
       </c>
-      <c r="D18" s="0">
-        <v>-0.0010767123391562548</v>
-      </c>
-      <c r="E18" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F18" s="0">
+      <c r="D18">
+        <v>-1.0767123391562548E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>1161.6144755399039</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>-60.292586457478066</v>
       </c>
-      <c r="H18" s="0">
-        <v>-0.0010767123391562548</v>
-      </c>
-      <c r="I18" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="B19" s="0">
+      <c r="H18">
+        <v>-1.0767123391562548E-3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.6</v>
+      </c>
+      <c r="B19">
         <v>1073.6502679390835</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>-54.335564998993917</v>
       </c>
-      <c r="D19" s="0">
-        <v>-0.005754767906897911</v>
-      </c>
-      <c r="E19" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F19" s="0">
+      <c r="D19">
+        <v>-5.754767906897911E-3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>1073.6502679390835</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>-54.335564998993917</v>
       </c>
-      <c r="H19" s="0">
-        <v>-0.005754767906897911</v>
-      </c>
-      <c r="I19" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="H19">
+        <v>-5.754767906897911E-3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2.8000000000000003</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>988.16975639583518</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>-49.128382972980589</v>
       </c>
-      <c r="D20" s="0">
-        <v>-0.0015279913935051176</v>
-      </c>
-      <c r="E20" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F20" s="0">
+      <c r="D20">
+        <v>-1.5279913935051176E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>988.16975639583518</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>-49.128382972980589</v>
       </c>
-      <c r="H20" s="0">
-        <v>-0.0015279913935051176</v>
-      </c>
-      <c r="I20" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+      <c r="H20">
+        <v>-1.5279913935051176E-3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>905.96846618080633</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>-44.478318397919963</v>
       </c>
-      <c r="D21" s="0">
-        <v>-0.0019012374775691809</v>
-      </c>
-      <c r="E21" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F21" s="0">
+      <c r="D21">
+        <v>-1.9012374775691809E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>905.96846618080633</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>-44.478318397919963</v>
       </c>
-      <c r="H21" s="0">
-        <v>-0.0019012374775691809</v>
-      </c>
-      <c r="I21" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="H21">
+        <v>-1.9012374775691809E-3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.2</v>
+      </c>
+      <c r="B22">
         <v>827.65068585640324</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>-40.274181754329646</v>
       </c>
-      <c r="D22" s="0">
-        <v>-0.00088962680101240693</v>
-      </c>
-      <c r="E22" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F22" s="0">
+      <c r="D22">
+        <v>-8.8962680101240693E-4</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>827.65068585640324</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>-40.274181754329646</v>
       </c>
-      <c r="H22" s="0">
-        <v>-0.00088962680101240693</v>
-      </c>
-      <c r="I22" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
+      <c r="H22">
+        <v>-8.8962680101240693E-4</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>3.4000000000000004</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>753.64508380328198</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>-36.449999703291226</v>
       </c>
-      <c r="D23" s="0">
-        <v>-0.0016842365714812746</v>
-      </c>
-      <c r="E23" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F23" s="0">
+      <c r="D23">
+        <v>-1.6842365714812746E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>753.64508380328198</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>-36.449999703291226</v>
       </c>
-      <c r="H23" s="0">
-        <v>-0.0016842365714812746</v>
-      </c>
-      <c r="I23" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="H23">
+        <v>-1.6842365714812746E-3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.6</v>
+      </c>
+      <c r="B24">
         <v>684.22442586294687</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>-32.963387864159969</v>
       </c>
-      <c r="D24" s="0">
-        <v>-0.0052339344248863743</v>
-      </c>
-      <c r="E24" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F24" s="0">
+      <c r="D24">
+        <v>-5.2339344248863743E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>684.22442586294687</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>-32.963387864159969</v>
       </c>
-      <c r="H24" s="0">
-        <v>-0.0052339344248863743</v>
-      </c>
-      <c r="I24" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
+      <c r="H24">
+        <v>-5.2339344248863743E-3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>3.8000000000000003</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>619.52746545593129</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>-29.784037640978667</v>
       </c>
-      <c r="D25" s="0">
-        <v>-0.0044431235649526005</v>
-      </c>
-      <c r="E25" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F25" s="0">
+      <c r="D25">
+        <v>-4.4431235649526005E-3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>619.52746545593129</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>-29.784037640978667</v>
       </c>
-      <c r="H25" s="0">
-        <v>-0.0044431235649526005</v>
-      </c>
-      <c r="I25" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
+      <c r="H25">
+        <v>-4.4431235649526005E-3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>559.5813034537714</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>-26.88783882557793</v>
       </c>
-      <c r="D26" s="0">
-        <v>-0.011476969704075766</v>
-      </c>
-      <c r="E26" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F26" s="0">
+      <c r="D26">
+        <v>-1.1476969704075766E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>559.5813034537714</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>-26.88783882557793</v>
       </c>
-      <c r="H26" s="0">
-        <v>-0.011476969704075766</v>
-      </c>
-      <c r="I26" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="B27" s="0">
+      <c r="H26">
+        <v>-1.1476969704075766E-2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4.2</v>
+      </c>
+      <c r="B27">
         <v>504.32294475492995</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>-24.253939042734473</v>
       </c>
-      <c r="D27" s="0">
-        <v>-0.001134077236083289</v>
-      </c>
-      <c r="E27" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F27" s="0">
+      <c r="D27">
+        <v>-1.134077236083289E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>504.32294475492995</v>
       </c>
-      <c r="G27" s="0">
+      <c r="G27">
         <v>-24.253939042734473</v>
       </c>
-      <c r="H27" s="0">
-        <v>-0.001134077236083289</v>
-      </c>
-      <c r="I27" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
+      <c r="H27">
+        <v>-1.134077236083289E-3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>453.6191942383698</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>-21.86326322137927</v>
       </c>
-      <c r="D28" s="0">
-        <v>-0.0044465502553582663</v>
-      </c>
-      <c r="E28" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F28" s="0">
+      <c r="D28">
+        <v>-4.4465502553582663E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>453.6191942383698</v>
       </c>
-      <c r="G28" s="0">
+      <c r="G28">
         <v>-21.86326322137927</v>
       </c>
-      <c r="H28" s="0">
-        <v>-0.0044465502553582663</v>
-      </c>
-      <c r="I28" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
+      <c r="H28">
+        <v>-4.4465502553582663E-3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>4.6000000000000005</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>407.28439104632702</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>-19.69783956014976</v>
       </c>
-      <c r="D29" s="0">
-        <v>-0.007468338938947639</v>
-      </c>
-      <c r="E29" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F29" s="0">
+      <c r="D29">
+        <v>-7.468338938947639E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>407.28439104632702</v>
       </c>
-      <c r="G29" s="0">
+      <c r="G29">
         <v>-19.69783956014976</v>
       </c>
-      <c r="H29" s="0">
-        <v>-0.007468338938947639</v>
-      </c>
-      <c r="I29" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
+      <c r="H29">
+        <v>-7.468338938947639E-3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>4.8000000000000007</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>365.09574713693581</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>-17.740494360157086</v>
       </c>
-      <c r="D30" s="0">
-        <v>-0.00074925969765881684</v>
-      </c>
-      <c r="E30" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F30" s="0">
+      <c r="D30">
+        <v>-7.4925969765881684E-4</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>365.09574713693581</v>
       </c>
-      <c r="G30" s="0">
+      <c r="G30">
         <v>-17.740494360157086</v>
       </c>
-      <c r="H30" s="0">
-        <v>-0.00074925969765881684</v>
-      </c>
-      <c r="I30" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
+      <c r="H30">
+        <v>-7.4925969765881684E-4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>326.80626181467659</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>-15.974756311117886</v>
       </c>
-      <c r="D31" s="0">
-        <v>-0.0010067880427482047</v>
-      </c>
-      <c r="E31" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F31" s="0">
+      <c r="D31">
+        <v>-1.0067880427482047E-3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>326.80626181467659</v>
       </c>
-      <c r="G31" s="0">
+      <c r="G31">
         <v>-15.974756311117886</v>
       </c>
-      <c r="H31" s="0">
-        <v>-0.0010067880427482047</v>
-      </c>
-      <c r="I31" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="H31">
+        <v>-1.0067880427482047E-3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5.2</v>
+      </c>
+      <c r="B32">
         <v>292.15532069598964</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>-14.384869042614994</v>
       </c>
-      <c r="D32" s="0">
-        <v>-0.0055041980464403438</v>
-      </c>
-      <c r="E32" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F32" s="0">
+      <c r="D32">
+        <v>-5.5041980464403438E-3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>292.15532069598964</v>
       </c>
-      <c r="G32" s="0">
+      <c r="G32">
         <v>-14.384869042614994</v>
       </c>
-      <c r="H32" s="0">
-        <v>-0.0055041980464403438</v>
-      </c>
-      <c r="I32" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>5.4000000000000004</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="H32">
+        <v>-5.5041980464403438E-3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5.4</v>
+      </c>
+      <c r="B33">
         <v>260.87717311622117</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>-12.955832496102857</v>
       </c>
-      <c r="D33" s="0">
-        <v>-0.001063935167592557</v>
-      </c>
-      <c r="E33" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F33" s="0">
+      <c r="D33">
+        <v>-1.063935167592557E-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>260.87717311622117</v>
       </c>
-      <c r="G33" s="0">
+      <c r="G33">
         <v>-12.955832496102857</v>
       </c>
-      <c r="H33" s="0">
-        <v>-0.001063935167592557</v>
-      </c>
-      <c r="I33" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
+      <c r="H33">
+        <v>-1.063935167592557E-3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>5.6000000000000005</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>232.70753017741475</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>-11.673447743927625</v>
       </c>
-      <c r="D34" s="0">
-        <v>-0.00070986351568736469</v>
-      </c>
-      <c r="E34" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F34" s="0">
+      <c r="D34">
+        <v>-7.0986351568736469E-4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>232.70753017741475</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34">
         <v>-11.673447743927625</v>
       </c>
-      <c r="H34" s="0">
-        <v>-0.00070986351568736469</v>
-      </c>
-      <c r="I34" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
+      <c r="H34">
+        <v>-7.0986351568736469E-4</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>5.8000000000000007</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>207.38854370885647</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>-10.524366584472205</v>
       </c>
-      <c r="D35" s="0">
-        <v>-0.0010540204777293456</v>
-      </c>
-      <c r="E35" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F35" s="0">
+      <c r="D35">
+        <v>-1.0540204777293456E-3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>207.38854370885647</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35">
         <v>-10.524366584472205</v>
       </c>
-      <c r="H35" s="0">
-        <v>-0.0010540204777293456</v>
-      </c>
-      <c r="I35" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
+      <c r="H35">
+        <v>-1.0540204777293456E-3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>184.67242161970199</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>-9.4961160055862877</v>
       </c>
-      <c r="D36" s="0">
-        <v>-0.0010588941538630006</v>
-      </c>
-      <c r="E36" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F36" s="0">
+      <c r="D36">
+        <v>-1.0588941538630006E-3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>184.67242161970199</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36">
         <v>-9.4961160055862877</v>
       </c>
-      <c r="H36" s="0">
-        <v>-0.0010588941538630006</v>
-      </c>
-      <c r="I36" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>6.2000000000000002</v>
-      </c>
-      <c r="B37" s="0">
+      <c r="H36">
+        <v>-1.0588941538630006E-3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6.2</v>
+      </c>
+      <c r="B37">
         <v>164.32392088411444</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>-8.5771085840602552</v>
       </c>
-      <c r="D37" s="0">
-        <v>-0.0045383521621758472</v>
-      </c>
-      <c r="E37" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F37" s="0">
+      <c r="D37">
+        <v>-4.5383521621758472E-3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>164.32392088411444</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37">
         <v>-8.5771085840602552</v>
       </c>
-      <c r="H37" s="0">
-        <v>-0.0045383521621758472</v>
-      </c>
-      <c r="I37" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="B38" s="0">
+      <c r="H37">
+        <v>-4.5383521621758472E-3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6.4</v>
+      </c>
+      <c r="B38">
         <v>146.12193526842987</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>-7.7566393236352127</v>
       </c>
-      <c r="D38" s="0">
-        <v>-0.0070354666182925957</v>
-      </c>
-      <c r="E38" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F38" s="0">
+      <c r="D38">
+        <v>-7.0354666182925957E-3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>146.12193526842987</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38">
         <v>-7.7566393236352127</v>
       </c>
-      <c r="H38" s="0">
-        <v>-0.0070354666182925957</v>
-      </c>
-      <c r="I38" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
+      <c r="H38">
+        <v>-7.0354666182925957E-3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>6.6000000000000005</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>129.86036769487526</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>-7.0248656219873169</v>
       </c>
-      <c r="D39" s="0">
-        <v>-0.0029361380576351211</v>
-      </c>
-      <c r="E39" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F39" s="0">
+      <c r="D39">
+        <v>-2.9361380576351211E-3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>129.86036769487526</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39">
         <v>-7.0248656219873169</v>
       </c>
-      <c r="H39" s="0">
-        <v>-0.0029361380576351211</v>
-      </c>
-      <c r="I39" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
+      <c r="H39">
+        <v>-2.9361380576351211E-3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>6.8000000000000007</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>115.34844973055415</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>-6.3727721738983547</v>
       </c>
-      <c r="D40" s="0">
-        <v>-0.020369796178753913</v>
-      </c>
-      <c r="E40" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F40" s="0">
+      <c r="D40">
+        <v>-2.0369796178753913E-2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>115.34844973055415</v>
       </c>
-      <c r="G40" s="0">
+      <c r="G40">
         <v>-6.3727721738983547</v>
       </c>
-      <c r="H40" s="0">
-        <v>-0.020369796178753913</v>
-      </c>
-      <c r="I40" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
+      <c r="H40">
+        <v>-2.0369796178753913E-2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>7</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>102.41064555784909</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>-5.7921502594438437</v>
       </c>
-      <c r="D41" s="0">
-        <v>-0.0035564732568992251</v>
-      </c>
-      <c r="E41" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F41" s="0">
+      <c r="D41">
+        <v>-3.5564732568992251E-3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>102.41064555784909</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41">
         <v>-5.7921502594438437</v>
       </c>
-      <c r="H41" s="0">
-        <v>-0.0035564732568992251</v>
-      </c>
-      <c r="I41" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="B42" s="0">
+      <c r="H41">
+        <v>-3.5564732568992251E-3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>7.2</v>
+      </c>
+      <c r="B42">
         <v>90.886248857861901</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>-5.2755247338420048</v>
       </c>
-      <c r="D42" s="0">
-        <v>-0.0083639806090725147</v>
-      </c>
-      <c r="E42" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F42" s="0">
+      <c r="D42">
+        <v>-8.3639806090725147E-3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>90.886248857861901</v>
       </c>
-      <c r="G42" s="0">
+      <c r="G42">
         <v>-5.2755247338420048</v>
       </c>
-      <c r="H42" s="0">
-        <v>-0.0083639806090725147</v>
-      </c>
-      <c r="I42" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="B43" s="0">
+      <c r="H42">
+        <v>-8.3639806090725147E-3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7.4</v>
+      </c>
+      <c r="B43">
         <v>80.62876795365311</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>-4.8161346693349998</v>
       </c>
-      <c r="D43" s="0">
-        <v>-0.011793641294456599</v>
-      </c>
-      <c r="E43" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F43" s="0">
+      <c r="D43">
+        <v>-1.1793641294456599E-2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>80.62876795365311</v>
       </c>
-      <c r="G43" s="0">
+      <c r="G43">
         <v>-4.8161346693349998</v>
       </c>
-      <c r="H43" s="0">
-        <v>-0.011793641294456599</v>
-      </c>
-      <c r="I43" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
+      <c r="H43">
+        <v>-1.1793641294456599E-2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>7.6000000000000005</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>71.505166131594848</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>-4.4078707219199913</v>
       </c>
-      <c r="D44" s="0">
-        <v>-0.0012220994100759128</v>
-      </c>
-      <c r="E44" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F44" s="0">
+      <c r="D44">
+        <v>-1.2220994100759128E-3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>71.505166131594848</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44">
         <v>-4.4078707219199913</v>
       </c>
-      <c r="H44" s="0">
-        <v>-0.0012220994100759128</v>
-      </c>
-      <c r="I44" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
+      <c r="H44">
+        <v>-1.2220994100759128E-3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>7.8000000000000007</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>63.395015628584858</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>-4.0452215973103165</v>
       </c>
-      <c r="D45" s="0">
-        <v>-0.0011952276151244627</v>
-      </c>
-      <c r="E45" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F45" s="0">
+      <c r="D45">
+        <v>-1.1952276151244627E-3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>63.395015628584858</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45">
         <v>-4.0452215973103165</v>
       </c>
-      <c r="H45" s="0">
-        <v>-0.0011952276151244627</v>
-      </c>
-      <c r="I45" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
+      <c r="H45">
+        <v>-1.1952276151244627E-3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>8</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>56.189608352170254</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>-3.7232330115888459</v>
       </c>
-      <c r="D46" s="0">
-        <v>-0.018913623072687295</v>
-      </c>
-      <c r="E46" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F46" s="0">
+      <c r="D46">
+        <v>-1.8913623072687295E-2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>56.189608352170254</v>
       </c>
-      <c r="G46" s="0">
+      <c r="G46">
         <v>-3.7232330115888459</v>
       </c>
-      <c r="H46" s="0">
-        <v>-0.018913623072687295</v>
-      </c>
-      <c r="I46" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
+      <c r="H46">
+        <v>-1.8913623072687295E-2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>8.2000000000000011</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>49.791054918270518</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>-3.4374658929924493</v>
       </c>
-      <c r="D47" s="0">
-        <v>-0.00465357973721796</v>
-      </c>
-      <c r="E47" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F47" s="0">
+      <c r="D47">
+        <v>-4.65357973721796E-3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>49.791054918270518</v>
       </c>
-      <c r="G47" s="0">
+      <c r="G47">
         <v>-3.4374658929924493</v>
       </c>
-      <c r="H47" s="0">
-        <v>-0.00465357973721796</v>
-      </c>
-      <c r="I47" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="B48" s="0">
+      <c r="H47">
+        <v>-4.65357973721796E-3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>8.4</v>
+      </c>
+      <c r="B48">
         <v>44.111394435277063</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>-3.1839292897353886</v>
       </c>
-      <c r="D48" s="0">
-        <v>-0.0041854504156411208</v>
-      </c>
-      <c r="E48" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F48" s="0">
+      <c r="D48">
+        <v>-4.1854504156411208E-3</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>44.111394435277063</v>
       </c>
-      <c r="G48" s="0">
+      <c r="G48">
         <v>-3.1839292897353886</v>
       </c>
-      <c r="H48" s="0">
-        <v>-0.0041854504156411208</v>
-      </c>
-      <c r="I48" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="B49" s="0">
+      <c r="H48">
+        <v>-4.1854504156411208E-3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8.6</v>
+      </c>
+      <c r="B49">
         <v>39.071735356785524</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>-2.9590603460581377</v>
       </c>
-      <c r="D49" s="0">
-        <v>-0.00078082491667308374</v>
-      </c>
-      <c r="E49" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F49" s="0">
+      <c r="D49">
+        <v>-7.8082491667308374E-4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>39.071735356785524</v>
       </c>
-      <c r="G49" s="0">
+      <c r="G49">
         <v>-2.9590603460581377</v>
       </c>
-      <c r="H49" s="0">
-        <v>-0.00078082491667308374</v>
-      </c>
-      <c r="I49" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
+      <c r="H49">
+        <v>-7.8082491667308374E-4</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>34.601434949137527</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>-2.7596720877438088</v>
       </c>
-      <c r="D50" s="0">
-        <v>-0.00096432740033963662</v>
-      </c>
-      <c r="E50" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F50" s="0">
+      <c r="D50">
+        <v>-9.6432740033963662E-4</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>34.601434949137527</v>
       </c>
-      <c r="G50" s="0">
+      <c r="G50">
         <v>-2.7596720877438088</v>
       </c>
-      <c r="H50" s="0">
-        <v>-0.00096432740033963662</v>
-      </c>
-      <c r="I50" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
+      <c r="H50">
+        <v>-9.6432740033963662E-4</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>9</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>39.485134802425009</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>-2.5371364196380171</v>
       </c>
-      <c r="D51" s="0">
-        <v>0.0028183055695620261</v>
-      </c>
-      <c r="E51" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F51" s="0">
+      <c r="D51">
+        <v>2.8183055695620261E-3</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>39.485134802425009</v>
       </c>
-      <c r="G51" s="0">
+      <c r="G51">
         <v>-2.5371364196380171</v>
       </c>
-      <c r="H51" s="0">
-        <v>0.0028183055695620261</v>
-      </c>
-      <c r="I51" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
+      <c r="H51">
+        <v>2.8183055695620261E-3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>9.2000000000000011</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>45.22463804877853</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>-2.7151320456631112</v>
       </c>
-      <c r="D52" s="0">
-        <v>0.00097595936298286348</v>
-      </c>
-      <c r="E52" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F52" s="0">
+      <c r="D52">
+        <v>9.7595936298286348E-4</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>45.22463804877853</v>
       </c>
-      <c r="G52" s="0">
+      <c r="G52">
         <v>-2.7151320456631112</v>
       </c>
-      <c r="H52" s="0">
-        <v>0.00097595936298286348</v>
-      </c>
-      <c r="I52" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>9.4000000000000004</v>
-      </c>
-      <c r="B53" s="0">
+      <c r="H52">
+        <v>9.7595936298286348E-4</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9.4</v>
+      </c>
+      <c r="B53">
         <v>50.338787197020011</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>-2.9331504403357513</v>
       </c>
-      <c r="D53" s="0">
-        <v>0.011079305822333005</v>
-      </c>
-      <c r="E53" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F53" s="0">
+      <c r="D53">
+        <v>1.1079305822333005E-2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>50.338787197020011</v>
       </c>
-      <c r="G53" s="0">
+      <c r="G53">
         <v>-2.9331504403357513</v>
       </c>
-      <c r="H53" s="0">
-        <v>0.011079305822333005</v>
-      </c>
-      <c r="I53" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
+      <c r="H53">
+        <v>1.1079305822333005E-2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>9.6000000000000014</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>54.904394992545178</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>-3.1352823408533794</v>
       </c>
-      <c r="D54" s="0">
-        <v>0.0012166126039848248</v>
-      </c>
-      <c r="E54" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F54" s="0">
+      <c r="D54">
+        <v>1.2166126039848248E-3</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>54.904394992545178</v>
       </c>
-      <c r="G54" s="0">
+      <c r="G54">
         <v>-3.1352823408533794</v>
       </c>
-      <c r="H54" s="0">
-        <v>0.0012166126039848248</v>
-      </c>
-      <c r="I54" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
+      <c r="H54">
+        <v>1.2166126039848248E-3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>58.990654740476103</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>-3.3171427024103224</v>
       </c>
-      <c r="D55" s="0">
-        <v>0.0040929045280930559</v>
-      </c>
-      <c r="E55" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F55" s="0">
+      <c r="D55">
+        <v>4.0929045280930559E-3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>58.990654740476103</v>
       </c>
-      <c r="G55" s="0">
+      <c r="G55">
         <v>-3.3171427024103224</v>
       </c>
-      <c r="H55" s="0">
-        <v>0.0040929045280930559</v>
-      </c>
-      <c r="I55" s="0">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
+      <c r="H55">
+        <v>4.0929045280930559E-3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>10</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>62.658053856303141</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>-3.4804648678193075</v>
       </c>
-      <c r="D56" s="0">
-        <v>0.00067361593329452762</v>
-      </c>
-      <c r="E56" s="0">
-        <v>-0</v>
-      </c>
-      <c r="F56" s="0">
+      <c r="D56">
+        <v>6.7361593329452762E-4</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>62.658053856303141</v>
       </c>
-      <c r="G56" s="0">
+      <c r="G56">
         <v>-3.4804648678193075</v>
       </c>
-      <c r="H56" s="0">
-        <v>0.00067361593329452762</v>
-      </c>
-      <c r="I56" s="0">
-        <v>-0</v>
+      <c r="H56">
+        <v>6.7361593329452762E-4</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
